--- a/medicine/Pharmacie/Sarédutant/Sarédutant.xlsx
+++ b/medicine/Pharmacie/Sarédutant/Sarédutant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sar%C3%A9dutant</t>
+          <t>Sarédutant</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sarédutant ou SR 48968, est un antagoniste des récepteurs neurokinie-2 développé par Sanofi Aventis pour lutter contre la dépression (antidépresseur) et l'anxiété (anxiolytique). En 2007 il est en phase 3 du développement clinique.
-En mai 2009, Sanofi-Aventis publie ses résultats trimestriels, et annonce l'arrêt de 14 projets de recherche-développement, dont le sarédutant en phase 3, dans le traitement de la dépression[2].
+En mai 2009, Sanofi-Aventis publie ses résultats trimestriels, et annonce l'arrêt de 14 projets de recherche-développement, dont le sarédutant en phase 3, dans le traitement de la dépression.
 </t>
         </is>
       </c>
